--- a/Data/Test SWV/DPV Analysis/Analysis Files/Apt3.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Apt3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Peak Info; File 0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Signal Data; File 0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signal Data; File 0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Peak Info; File 0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,10 +480,10 @@
         <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.2782619047619049</v>
+        <v>-0.2782619047619045</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.2782619047619049</v>
+        <v>-0.2782619047619045</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>-0.268</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.0269729761904762</v>
+        <v>-0.02697297619047617</v>
       </c>
     </row>
     <row r="3">
@@ -501,10 +501,10 @@
         <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.2711309523809525</v>
+        <v>-0.2711309523809524</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.2711309523809525</v>
+        <v>-0.2711309523809524</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -518,10 +518,10 @@
         <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.263259523809524</v>
+        <v>-0.2632595238095239</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.263259523809524</v>
+        <v>-0.2632595238095239</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -535,10 +535,10 @@
         <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.2551142857142858</v>
+        <v>-0.2551142857142857</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.2551142857142858</v>
+        <v>-0.2551142857142857</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -552,10 +552,10 @@
         <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.2472047619047621</v>
+        <v>-0.247204761904762</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.2472047619047621</v>
+        <v>-0.247204761904762</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.2401380952380954</v>
+        <v>-0.2401380952380953</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.2401380952380954</v>
+        <v>-0.2401380952380953</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.2336333333333335</v>
+        <v>-0.2336333333333333</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.2336333333333335</v>
+        <v>-0.2336333333333333</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -603,10 +603,10 @@
         <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.2275523809523811</v>
+        <v>-0.227552380952381</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.2275523809523811</v>
+        <v>-0.227552380952381</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.2218619047619049</v>
+        <v>-0.2218619047619048</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.2218619047619049</v>
+        <v>-0.2218619047619048</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -637,10 +637,10 @@
         <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.2166476190476192</v>
+        <v>-0.2166476190476191</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.2166476190476192</v>
+        <v>-0.2166476190476191</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -654,10 +654,10 @@
         <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.2116809523809525</v>
+        <v>-0.2116809523809524</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.2116809523809525</v>
+        <v>-0.2116809523809524</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.2069428571428573</v>
+        <v>-0.2069428571428572</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.2069428571428573</v>
+        <v>-0.2069428571428572</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -688,10 +688,10 @@
         <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.2025666666666668</v>
+        <v>-0.2025666666666667</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.2025666666666668</v>
+        <v>-0.2025666666666667</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.1983857142857144</v>
+        <v>-0.1983857142857143</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.1983857142857144</v>
+        <v>-0.1983857142857143</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.1944428571428573</v>
+        <v>-0.1944428571428572</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.1944428571428573</v>
+        <v>-0.1944428571428572</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.1907904761904763</v>
+        <v>-0.1907904761904762</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.1907904761904763</v>
+        <v>-0.1907904761904762</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.187457142857143</v>
+        <v>-0.1874571428571429</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.187457142857143</v>
+        <v>-0.1874571428571429</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.1842523809523811</v>
+        <v>-0.184252380952381</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.1842523809523811</v>
+        <v>-0.184252380952381</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.1811476190476192</v>
+        <v>-0.1811476190476191</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.1811476190476192</v>
+        <v>-0.1811476190476191</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.1750809523809525</v>
+        <v>-0.1750809523809524</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.1750809523809525</v>
+        <v>-0.1750809523809524</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.1722000000000001</v>
+        <v>-0.1722</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.1722000000000001</v>
+        <v>-0.1722</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.1696142857142858</v>
+        <v>-0.1696142857142857</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.1696142857142858</v>
+        <v>-0.1696142857142857</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0</v>
@@ -875,10 +875,10 @@
         <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.1671666666666668</v>
+        <v>-0.1671666666666667</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.1671666666666668</v>
+        <v>-0.1671666666666667</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.1647809523809525</v>
+        <v>-0.1647809523809524</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.1647809523809525</v>
+        <v>-0.1647809523809524</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.1624285714285715</v>
+        <v>-0.1624285714285714</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.1624285714285715</v>
+        <v>-0.1624285714285714</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.1601904761904763</v>
+        <v>-0.1601904761904762</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.1601904761904763</v>
+        <v>-0.1601904761904762</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.1557952380952382</v>
+        <v>-0.1557952380952381</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.1557952380952382</v>
+        <v>-0.1557952380952381</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.1538714285714287</v>
+        <v>-0.1538714285714286</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.1538714285714287</v>
+        <v>-0.1538714285714286</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.151904761904762</v>
+        <v>-0.1519047619047619</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.151904761904762</v>
+        <v>-0.1519047619047619</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.1499238095238096</v>
+        <v>-0.1499238095238095</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.1499238095238096</v>
+        <v>-0.1499238095238095</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.1479142857142858</v>
+        <v>-0.1479142857142857</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.1479142857142858</v>
+        <v>-0.1479142857142857</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>0</v>
@@ -1045,10 +1045,10 @@
         <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.1460000000000001</v>
+        <v>-0.146</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.1460000000000001</v>
+        <v>-0.146</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.1442476190476192</v>
+        <v>-0.1442476190476191</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.1442476190476192</v>
+        <v>-0.1442476190476191</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.1427619047619049</v>
+        <v>-0.1427619047619048</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.1427619047619049</v>
+        <v>-0.1427619047619048</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.1412666666666668</v>
+        <v>-0.1412666666666667</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.1412666666666668</v>
+        <v>-0.1412666666666667</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.1397619047619049</v>
+        <v>-0.1397619047619048</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.1397619047619049</v>
+        <v>-0.1397619047619048</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.138304761904762</v>
+        <v>-0.1383047619047619</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.138304761904762</v>
+        <v>-0.1383047619047619</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.1336095238095239</v>
+        <v>-0.1336095238095238</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.1336095238095239</v>
+        <v>-0.1336095238095238</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.1326904761904763</v>
+        <v>-0.1326904761904762</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.1326904761904763</v>
+        <v>-0.1326904761904762</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.1320095238095239</v>
+        <v>-0.1320095238095238</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1320095238095239</v>
+        <v>-0.1320095238095238</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.1313523809523811</v>
+        <v>-0.131352380952381</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.1313523809523811</v>
+        <v>-0.131352380952381</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>2.775557561562891e-17</v>
@@ -1266,13 +1266,13 @@
         <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.1308095238095239</v>
+        <v>-0.1308095238095238</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>-0.1307817857142858</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-2.773809523809456e-05</v>
+        <v>-2.773809523806681e-05</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1286,7 +1286,7 @@
         <v>-0.1305380952380953</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1302111904761906</v>
+        <v>-0.1302111904761905</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>-0.0003269047619047227</v>
@@ -1300,13 +1300,13 @@
         <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.1305238095238096</v>
+        <v>-0.1305238095238095</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.1296405952380954</v>
+        <v>-0.1296405952380953</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.0008832142857142233</v>
+        <v>-0.0008832142857142511</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1317,10 +1317,10 @@
         <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.1308428571428572</v>
+        <v>-0.1308428571428571</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.1290700000000001</v>
+        <v>-0.12907</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>-0.001772857142857104</v>
@@ -1337,10 +1337,10 @@
         <v>-0.1314190476190477</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.1284994047619049</v>
+        <v>-0.1284994047619048</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.002919642857142829</v>
+        <v>-0.002919642857142857</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1351,13 +1351,13 @@
         <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.1322000000000001</v>
+        <v>-0.1322</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>-0.1279288095238096</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.004271190476190456</v>
+        <v>-0.004271190476190401</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1368,10 +1368,10 @@
         <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.1332380952380953</v>
+        <v>-0.1332380952380952</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.1273582142857144</v>
+        <v>-0.1273582142857143</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>-0.0058798809523809</v>
@@ -1385,10 +1385,10 @@
         <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.1344190476190477</v>
+        <v>-0.1344190476190476</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.1267876190476192</v>
+        <v>-0.1267876190476191</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>-0.007631428571428539</v>
@@ -1402,7 +1402,7 @@
         <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.1357666666666668</v>
+        <v>-0.1357666666666667</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>-0.1262170238095239</v>
@@ -1422,7 +1422,7 @@
         <v>-0.1373666666666667</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.1256464285714287</v>
+        <v>-0.1256464285714286</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>-0.01172023809523806</v>
@@ -1442,7 +1442,7 @@
         <v>-0.1250758333333334</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.01373845238095239</v>
+        <v>-0.01373845238095237</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1453,13 +1453,13 @@
         <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.1404000000000001</v>
+        <v>-0.1404</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.1245052380952382</v>
+        <v>-0.1245052380952381</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.01589476190476187</v>
+        <v>-0.01589476190476188</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1470,13 +1470,13 @@
         <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.1418523809523811</v>
+        <v>-0.141852380952381</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.123934642857143</v>
+        <v>-0.1239346428571429</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.01791773809523808</v>
+        <v>-0.01791773809523807</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1487,13 +1487,13 @@
         <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.1431095238095239</v>
+        <v>-0.1431095238095238</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>-0.1233640476190477</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.01974547619047617</v>
+        <v>-0.01974547619047615</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1504,13 +1504,13 @@
         <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.144357142857143</v>
+        <v>-0.1443571428571429</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.1227934523809525</v>
+        <v>-0.1227934523809524</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.02156369047619047</v>
+        <v>-0.02156369047619044</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1521,13 +1521,13 @@
         <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.1453333333333334</v>
+        <v>-0.1453333333333333</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1222228571428573</v>
+        <v>-0.1222228571428572</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.02311047619047617</v>
+        <v>-0.02311047619047615</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1538,13 +1538,13 @@
         <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.1459523809523811</v>
+        <v>-0.1459523809523809</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.121652261904762</v>
+        <v>-0.1216522619047619</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.02430011904761904</v>
+        <v>-0.024300119047619</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1555,13 +1555,13 @@
         <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.1465190476190477</v>
+        <v>-0.1465190476190476</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.1210816666666668</v>
+        <v>-0.1210816666666667</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.02543738095238093</v>
+        <v>-0.02543738095238092</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1572,7 +1572,7 @@
         <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.1467761904761906</v>
+        <v>-0.1467761904761905</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>-0.1205110714285715</v>
@@ -1589,13 +1589,13 @@
         <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.1466380952380953</v>
+        <v>-0.1466380952380952</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.1199404761904763</v>
+        <v>-0.1199404761904762</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.02669761904761905</v>
+        <v>-0.026697619047619</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1612,7 +1612,7 @@
         <v>-0.119369880952381</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.0269729761904762</v>
+        <v>-0.02697297619047617</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1640,13 +1640,13 @@
         <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.1441000000000001</v>
+        <v>-0.1441</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1182286904761906</v>
+        <v>-0.1182286904761905</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.0258713095238095</v>
+        <v>-0.02587130952380948</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1657,13 +1657,13 @@
         <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.1425333333333334</v>
+        <v>-0.1425333333333333</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>-0.1176580952380953</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.02487523809523809</v>
+        <v>-0.02487523809523806</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1680,7 +1680,7 @@
         <v>-0.1170875000000001</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.02365535714285713</v>
+        <v>-0.02365535714285712</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1691,13 +1691,13 @@
         <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.1385619047619049</v>
+        <v>-0.1385619047619048</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1165169047619049</v>
+        <v>-0.1165169047619048</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.022045</v>
+        <v>-0.02204499999999995</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1708,13 +1708,13 @@
         <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.1362666666666668</v>
+        <v>-0.1362666666666667</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>-0.1159463095238096</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.02032035714285713</v>
+        <v>-0.0203203571428571</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1725,13 +1725,13 @@
         <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.1337190476190477</v>
+        <v>-0.1337190476190476</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1153757142857144</v>
+        <v>-0.1153757142857143</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.01834333333333332</v>
+        <v>-0.01834333333333329</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1742,13 +1742,13 @@
         <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1310238095238096</v>
+        <v>-0.1310238095238095</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>-0.1148051190476191</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.01621869047619048</v>
+        <v>-0.01621869047619046</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1759,13 +1759,13 @@
         <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.1282333333333334</v>
+        <v>-0.1282333333333333</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>-0.1142345238095239</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.01399880952380952</v>
+        <v>-0.01399880952380948</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1779,10 +1779,10 @@
         <v>-0.125452380952381</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1136639285714287</v>
+        <v>-0.1136639285714286</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.01178845238095237</v>
+        <v>-0.01178845238095236</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1793,13 +1793,13 @@
         <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1225285714285715</v>
+        <v>-0.1225285714285714</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>-0.1130933333333334</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.009435238095238094</v>
+        <v>-0.009435238095238066</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1813,7 +1813,7 @@
         <v>-0.1197666666666667</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1125227380952382</v>
+        <v>-0.1125227380952381</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>-0.007243928571428554</v>
@@ -1833,7 +1833,7 @@
         <v>-0.1119521428571429</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.005285952380952391</v>
+        <v>-0.00528595238095235</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1844,13 +1844,13 @@
         <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.1150904761904763</v>
+        <v>-0.1150904761904762</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>-0.1113815476190477</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.003708928571428585</v>
+        <v>-0.003708928571428544</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1861,13 +1861,13 @@
         <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1131952380952382</v>
+        <v>-0.1131952380952381</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1108109523809525</v>
+        <v>-0.1108109523809524</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.002384285714285728</v>
+        <v>-0.002384285714285686</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1878,13 +1878,13 @@
         <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1116809523809525</v>
+        <v>-0.1116809523809524</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>-0.1102403571428572</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.001440595238095227</v>
+        <v>-0.001440595238095213</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1895,13 +1895,13 @@
         <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.1102904761904763</v>
+        <v>-0.1102904761904762</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>-0.109669761904762</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.00062071428571428</v>
+        <v>-0.0006207142857142522</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1912,13 +1912,13 @@
         <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1092238095238096</v>
+        <v>-0.1092238095238095</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>-0.1090991666666667</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.0001246428571428648</v>
+        <v>-0.0001246428571428371</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1929,13 +1929,13 @@
         <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1085285714285715</v>
+        <v>-0.1085285714285714</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>-0.1085285714285715</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1980,10 +1980,10 @@
         <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.1079095238095239</v>
+        <v>-0.1079095238095238</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1079095238095239</v>
+        <v>-0.1079095238095238</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>0</v>
@@ -1997,10 +1997,10 @@
         <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1083238095238096</v>
+        <v>-0.1083238095238095</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1083238095238096</v>
+        <v>-0.1083238095238095</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.1089809523809525</v>
+        <v>-0.1089809523809524</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1089809523809525</v>
+        <v>-0.1089809523809524</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1120238095238096</v>
+        <v>-0.1120238095238095</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1120238095238096</v>
+        <v>-0.1120238095238095</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2099,10 +2099,10 @@
         <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.115104761904762</v>
+        <v>-0.1151047619047619</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.115104761904762</v>
+        <v>-0.1151047619047619</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0</v>
@@ -2116,10 +2116,10 @@
         <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1167190476190477</v>
+        <v>-0.1167190476190476</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1167190476190477</v>
+        <v>-0.1167190476190476</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2133,10 +2133,10 @@
         <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1184000000000001</v>
+        <v>-0.1184</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1184000000000001</v>
+        <v>-0.1184</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2201,10 +2201,10 @@
         <v>-0.408</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>-0.1291952380952382</v>
+        <v>-0.1291952380952381</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>-0.1291952380952382</v>
+        <v>-0.1291952380952381</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>0</v>
@@ -2218,10 +2218,10 @@
         <v>-0.412</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>-0.1320190476190477</v>
+        <v>-0.1320190476190476</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>-0.1320190476190477</v>
+        <v>-0.1320190476190476</v>
       </c>
       <c r="D104" s="2" t="n">
         <v>0</v>
@@ -2235,10 +2235,10 @@
         <v>-0.416</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>-0.1350619047619049</v>
+        <v>-0.1350619047619048</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>-0.1350619047619049</v>
+        <v>-0.1350619047619048</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>0</v>
@@ -2252,10 +2252,10 @@
         <v>-0.42</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>-0.1383952380952382</v>
+        <v>-0.1383952380952381</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>-0.1383952380952382</v>
+        <v>-0.1383952380952381</v>
       </c>
       <c r="D106" s="2" t="n">
         <v>0</v>
@@ -2269,10 +2269,10 @@
         <v>-0.424</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>-0.1421714285714287</v>
+        <v>-0.1421714285714286</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>-0.1421714285714287</v>
+        <v>-0.1421714285714286</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>-0.432</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>-0.1515761904761906</v>
+        <v>-0.1515761904761905</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>-0.1515761904761906</v>
+        <v>-0.1515761904761905</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>-0.436</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>-0.1563428571428573</v>
+        <v>-0.1563428571428572</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>-0.1563428571428573</v>
+        <v>-0.1563428571428572</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>0</v>
@@ -2337,10 +2337,10 @@
         <v>-0.44</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>-0.1612809523809525</v>
+        <v>-0.1612809523809524</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>-0.1612809523809525</v>
+        <v>-0.1612809523809524</v>
       </c>
       <c r="D111" s="2" t="n">
         <v>0</v>
@@ -2354,10 +2354,10 @@
         <v>-0.444</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>-0.1664761904761906</v>
+        <v>-0.1664761904761905</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>-0.1664761904761906</v>
+        <v>-0.1664761904761905</v>
       </c>
       <c r="D112" s="2" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>-0.448</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>-0.172157142857143</v>
+        <v>-0.1721571428571429</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>-0.172157142857143</v>
+        <v>-0.1721571428571429</v>
       </c>
       <c r="D113" s="2" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>-0.452</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>-0.1784238095238097</v>
+        <v>-0.1784238095238095</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>-0.1784238095238097</v>
+        <v>-0.1784238095238095</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>-0.456</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>-0.1851619047619049</v>
+        <v>-0.1851619047619048</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>-0.1851619047619049</v>
+        <v>-0.1851619047619048</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         <v>-0.46</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>-0.192457142857143</v>
+        <v>-0.1924571428571429</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>-0.192457142857143</v>
+        <v>-0.1924571428571429</v>
       </c>
       <c r="D116" s="2" t="n">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>-0.464</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>-0.2000857142857144</v>
+        <v>-0.2000857142857143</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>-0.2000857142857144</v>
+        <v>-0.2000857142857143</v>
       </c>
       <c r="D117" s="2" t="n">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>-0.468</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>-0.2082857142857144</v>
+        <v>-0.2082857142857143</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>-0.2082857142857144</v>
+        <v>-0.2082857142857143</v>
       </c>
       <c r="D118" s="2" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         <v>-0.472</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>-0.2169428571428573</v>
+        <v>-0.2169428571428572</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>-0.2169428571428573</v>
+        <v>-0.2169428571428572</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>-0.476</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>-0.226209523809524</v>
+        <v>-0.2262095238095238</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>-0.226209523809524</v>
+        <v>-0.2262095238095238</v>
       </c>
       <c r="D120" s="2" t="n">
         <v>0</v>
@@ -2507,10 +2507,10 @@
         <v>-0.48</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>-0.2361428571428573</v>
+        <v>-0.2361428571428572</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>-0.2361428571428573</v>
+        <v>-0.2361428571428572</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>-0.484</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>-0.2466666666666669</v>
+        <v>-0.2466666666666667</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>-0.2466666666666669</v>
+        <v>-0.2466666666666667</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>-0.488</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>-0.2578809523809525</v>
+        <v>-0.2578809523809524</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>-0.2578809523809525</v>
+        <v>-0.2578809523809524</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>-0.492</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>-0.2696452380952384</v>
+        <v>-0.2696452380952383</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>-0.2696452380952384</v>
+        <v>-0.2696452380952383</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>-0.496</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>-0.2819738095238099</v>
+        <v>-0.2819738095238098</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>-0.2819738095238099</v>
+        <v>-0.2819738095238098</v>
       </c>
       <c r="D125" s="2" t="n">
         <v>0</v>
@@ -2592,10 +2592,10 @@
         <v>-0.5</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>-0.2948500000000004</v>
+        <v>-0.2948500000000005</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>-0.2948500000000004</v>
+        <v>-0.2948500000000005</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>-0.268</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.0269729761904762</v>
+        <v>-0.02697297619047617</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Apt3.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Apt3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,13 +477,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.2782619047619045</v>
+        <v>-0.164809523809524</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.2782619047619045</v>
+        <v>-0.164809523809524</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -493,18 +493,18 @@
         <v>-0.268</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.02697297619047617</v>
+        <v>-0.0269729761904762</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.2711309523809524</v>
+        <v>-0.1624833333333335</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.2711309523809524</v>
+        <v>-0.1624833333333335</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -515,13 +515,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.2632595238095239</v>
+        <v>-0.1601833333333334</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.2632595238095239</v>
+        <v>-0.1601833333333334</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.2551142857142857</v>
+        <v>-0.1579428571428572</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.2551142857142857</v>
+        <v>-0.1579428571428572</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -549,13 +549,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.247204761904762</v>
+        <v>-0.1557952380952382</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.247204761904762</v>
+        <v>-0.1557952380952382</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -566,13 +566,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.2401380952380953</v>
+        <v>-0.1538714285714287</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.2401380952380953</v>
+        <v>-0.1538714285714287</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.2336333333333333</v>
+        <v>-0.151904761904762</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.2336333333333333</v>
+        <v>-0.151904761904762</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -600,13 +600,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.227552380952381</v>
+        <v>-0.1499238095238096</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.227552380952381</v>
+        <v>-0.1499238095238096</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -617,13 +617,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.2218619047619048</v>
+        <v>-0.1479142857142858</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.2218619047619048</v>
+        <v>-0.1479142857142858</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -634,13 +634,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.2166476190476191</v>
+        <v>-0.1460000000000001</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.2166476190476191</v>
+        <v>-0.1460000000000001</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -651,13 +651,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.2116809523809524</v>
+        <v>-0.1442476190476192</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.2116809523809524</v>
+        <v>-0.1442476190476192</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.2069428571428572</v>
+        <v>-0.1427619047619049</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.2069428571428572</v>
+        <v>-0.1427619047619049</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.2025666666666667</v>
+        <v>-0.1412666666666668</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.2025666666666667</v>
+        <v>-0.1412666666666668</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -702,13 +702,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.1983857142857143</v>
+        <v>-0.1397619047619048</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.1983857142857143</v>
+        <v>-0.1397619047619048</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.1944428571428572</v>
+        <v>-0.138304761904762</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.1944428571428572</v>
+        <v>-0.138304761904762</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -736,13 +736,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.1907904761904762</v>
+        <v>-0.1369285714285715</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.1907904761904762</v>
+        <v>-0.1369285714285715</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.1874571428571429</v>
+        <v>-0.1356380952380953</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.1874571428571429</v>
+        <v>-0.1356380952380953</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
@@ -770,13 +770,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.184252380952381</v>
+        <v>-0.1345714285714286</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.184252380952381</v>
+        <v>-0.1345714285714286</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.1811476190476191</v>
+        <v>-0.1336095238095239</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.1811476190476191</v>
+        <v>-0.1336095238095239</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -804,13 +804,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.1780285714285715</v>
+        <v>-0.1326904761904763</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.1780285714285715</v>
+        <v>-0.1326904761904763</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.1750809523809524</v>
+        <v>-0.1320095238095239</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.1750809523809524</v>
+        <v>-0.1320095238095239</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
@@ -838,16 +838,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.1722</v>
+        <v>-0.1313523809523811</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.1722</v>
+        <v>-0.1313523809523811</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -855,16 +855,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.1696142857142857</v>
+        <v>-0.1308095238095239</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.1696142857142857</v>
+        <v>-0.1307817857142858</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0</v>
+        <v>-2.773809523806681e-05</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -872,16 +872,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.1671666666666667</v>
+        <v>-0.1305380952380953</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.1671666666666667</v>
+        <v>-0.1302111904761906</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0</v>
+        <v>-0.0003269047619047227</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -889,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.1647809523809524</v>
+        <v>-0.1305238095238096</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.1647809523809524</v>
+        <v>-0.1296405952380954</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0</v>
+        <v>-0.0008832142857142233</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -906,16 +906,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.1624285714285714</v>
+        <v>-0.1308428571428572</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.1624285714285714</v>
+        <v>-0.1290700000000001</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0</v>
+        <v>-0.001772857142857104</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -923,16 +923,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.1601904761904762</v>
+        <v>-0.1314190476190477</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.1601904761904762</v>
+        <v>-0.1284994047619049</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0</v>
+        <v>-0.002919642857142829</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -940,16 +940,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.1579428571428572</v>
+        <v>-0.1322000000000001</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.1579428571428572</v>
+        <v>-0.1279288095238096</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0</v>
+        <v>-0.004271190476190428</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -957,16 +957,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.1557952380952381</v>
+        <v>-0.1332380952380953</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.1557952380952381</v>
+        <v>-0.1273582142857144</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0</v>
+        <v>-0.0058798809523809</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -974,16 +974,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.1538714285714286</v>
+        <v>-0.1344190476190477</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.1538714285714286</v>
+        <v>-0.1267876190476192</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0</v>
+        <v>-0.007631428571428539</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -991,16 +991,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.1519047619047619</v>
+        <v>-0.1357666666666668</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.1519047619047619</v>
+        <v>-0.1262170238095239</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0</v>
+        <v>-0.009549642857142826</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1008,16 +1008,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.1499238095238095</v>
+        <v>-0.1373666666666667</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.1499238095238095</v>
+        <v>-0.1256464285714287</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0</v>
+        <v>-0.01172023809523806</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1025,16 +1025,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.1479142857142857</v>
+        <v>-0.1388142857142858</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.1479142857142857</v>
+        <v>-0.1250758333333334</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0</v>
+        <v>-0.01373845238095237</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.146</v>
+        <v>-0.1404000000000001</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.146</v>
+        <v>-0.1245052380952382</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0</v>
+        <v>-0.01589476190476187</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1059,16 +1059,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.1442476190476191</v>
+        <v>-0.1418523809523811</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.1442476190476191</v>
+        <v>-0.123934642857143</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0</v>
+        <v>-0.01791773809523808</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.1427619047619048</v>
+        <v>-0.1431095238095239</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.1427619047619048</v>
+        <v>-0.1233640476190477</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0</v>
+        <v>-0.01974547619047617</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1093,16 +1093,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.1412666666666667</v>
+        <v>-0.144357142857143</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.1412666666666667</v>
+        <v>-0.1227934523809525</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0</v>
+        <v>-0.02156369047619047</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.1397619047619048</v>
+        <v>-0.1453333333333334</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.1397619047619048</v>
+        <v>-0.1222228571428573</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0</v>
+        <v>-0.02311047619047617</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1127,16 +1127,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.1383047619047619</v>
+        <v>-0.1459523809523811</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.1383047619047619</v>
+        <v>-0.121652261904762</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0</v>
+        <v>-0.02430011904761904</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1144,16 +1144,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.1369285714285715</v>
+        <v>-0.1465190476190477</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.1369285714285715</v>
+        <v>-0.1210816666666668</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0</v>
+        <v>-0.02543738095238091</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1161,16 +1161,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.1356380952380953</v>
+        <v>-0.1467761904761906</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.1356380952380953</v>
+        <v>-0.1205110714285715</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0</v>
+        <v>-0.02626511904761902</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1178,16 +1178,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.1345714285714286</v>
+        <v>-0.1466380952380953</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.1345714285714286</v>
+        <v>-0.1199404761904763</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0</v>
+        <v>-0.02669761904761903</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1195,16 +1195,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.1336095238095238</v>
+        <v>-0.1463428571428572</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.1336095238095238</v>
+        <v>-0.119369880952381</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0</v>
+        <v>-0.0269729761904762</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1212,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.1326904761904762</v>
+        <v>-0.1454380952380953</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.1326904761904762</v>
+        <v>-0.1187992857142858</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0</v>
+        <v>-0.0266388095238095</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1229,16 +1229,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.1320095238095238</v>
+        <v>-0.1441000000000001</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1320095238095238</v>
+        <v>-0.1182286904761906</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0</v>
+        <v>-0.0258713095238095</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1246,16 +1246,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.131352380952381</v>
+        <v>-0.1425333333333334</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.131352380952381</v>
+        <v>-0.1176580952380953</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>2.775557561562891e-17</v>
+        <v>-0.02487523809523809</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1263,16 +1263,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.1308095238095238</v>
+        <v>-0.1407428571428572</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.1307817857142858</v>
+        <v>-0.1170875000000001</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-2.773809523806681e-05</v>
+        <v>-0.02365535714285713</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1280,16 +1280,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.1305380952380953</v>
+        <v>-0.1385619047619049</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1302111904761905</v>
+        <v>-0.1165169047619049</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.0003269047619047227</v>
+        <v>-0.022045</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.1305238095238095</v>
+        <v>-0.1362666666666668</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.1296405952380953</v>
+        <v>-0.1159463095238096</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.0008832142857142511</v>
+        <v>-0.02032035714285713</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1314,16 +1314,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.1308428571428571</v>
+        <v>-0.1337190476190477</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.12907</v>
+        <v>-0.1153757142857144</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.001772857142857104</v>
+        <v>-0.01834333333333332</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1331,16 +1331,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.1314190476190477</v>
+        <v>-0.1310238095238096</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.1284994047619048</v>
+        <v>-0.1148051190476191</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.002919642857142857</v>
+        <v>-0.01621869047619046</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1348,16 +1348,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.1322</v>
+        <v>-0.1282333333333334</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.1279288095238096</v>
+        <v>-0.1142345238095239</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.004271190476190401</v>
+        <v>-0.01399880952380952</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.1332380952380952</v>
+        <v>-0.125452380952381</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.1273582142857143</v>
+        <v>-0.1136639285714287</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.0058798809523809</v>
+        <v>-0.01178845238095237</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1382,16 +1382,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.1344190476190476</v>
+        <v>-0.1225285714285715</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.1267876190476191</v>
+        <v>-0.1130933333333334</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.007631428571428539</v>
+        <v>-0.009435238095238094</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1399,16 +1399,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.1357666666666667</v>
+        <v>-0.1197666666666667</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.1262170238095239</v>
+        <v>-0.1125227380952382</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.009549642857142826</v>
+        <v>-0.007243928571428554</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1416,16 +1416,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.1373666666666667</v>
+        <v>-0.1172380952380953</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.1256464285714286</v>
+        <v>-0.1119521428571429</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.01172023809523806</v>
+        <v>-0.005285952380952377</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.1388142857142858</v>
+        <v>-0.1150904761904763</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.1250758333333334</v>
+        <v>-0.1113815476190477</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.01373845238095237</v>
+        <v>-0.003708928571428571</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1450,16 +1450,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.1404</v>
+        <v>-0.1131952380952382</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.1245052380952381</v>
+        <v>-0.1108109523809525</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.01589476190476188</v>
+        <v>-0.002384285714285728</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1467,16 +1467,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.141852380952381</v>
+        <v>-0.1116809523809525</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.1239346428571429</v>
+        <v>-0.1102403571428572</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.01791773809523807</v>
+        <v>-0.001440595238095241</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1484,16 +1484,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.1431095238095238</v>
+        <v>-0.1102904761904763</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.1233640476190477</v>
+        <v>-0.109669761904762</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.01974547619047615</v>
+        <v>-0.0006207142857142661</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.1443571428571429</v>
+        <v>-0.1092238095238096</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.1227934523809524</v>
+        <v>-0.1090991666666667</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.02156369047619044</v>
+        <v>-0.0001246428571428509</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1518,16 +1518,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.1453333333333333</v>
+        <v>-0.1085285714285715</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1222228571428572</v>
+        <v>-0.1085285714285715</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.02311047619047615</v>
+        <v>0</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1535,16 +1535,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.1459523809523809</v>
+        <v>-0.1079761904761905</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.1216522619047619</v>
+        <v>-0.1079761904761905</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.024300119047619</v>
+        <v>0</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1552,16 +1552,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.1465190476190476</v>
+        <v>-0.107752380952381</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.1210816666666667</v>
+        <v>-0.107752380952381</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.02543738095238092</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1569,16 +1569,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.1467761904761905</v>
+        <v>-0.1079095238095239</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.1205110714285715</v>
+        <v>-0.1079095238095239</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.02626511904761902</v>
+        <v>0</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1586,16 +1586,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.1466380952380952</v>
+        <v>-0.1083238095238096</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.1199404761904762</v>
+        <v>-0.1083238095238096</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.026697619047619</v>
+        <v>0</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1603,16 +1603,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.1463428571428572</v>
+        <v>-0.1089809523809525</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.119369880952381</v>
+        <v>-0.1089809523809525</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.02697297619047617</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1620,16 +1620,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.1454380952380953</v>
+        <v>-0.1097619047619048</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.1187992857142858</v>
+        <v>-0.1097619047619048</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.0266388095238095</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.1441</v>
+        <v>-0.1106571428571429</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1182286904761905</v>
+        <v>-0.1106571428571429</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.02587130952380948</v>
+        <v>0</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.1425333333333333</v>
+        <v>-0.1120238095238096</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1176580952380953</v>
+        <v>-0.1120238095238096</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.02487523809523806</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1671,16 +1671,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.1407428571428572</v>
+        <v>-0.1134380952380953</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1170875000000001</v>
+        <v>-0.1134380952380953</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.02365535714285712</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1688,16 +1688,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.1385619047619048</v>
+        <v>-0.115104761904762</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1165169047619048</v>
+        <v>-0.115104761904762</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.02204499999999995</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1705,16 +1705,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.1362666666666667</v>
+        <v>-0.1167190476190477</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1159463095238096</v>
+        <v>-0.1167190476190477</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.0203203571428571</v>
+        <v>0</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1722,16 +1722,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.1337190476190476</v>
+        <v>-0.1184000000000001</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1153757142857143</v>
+        <v>-0.1184000000000001</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.01834333333333329</v>
+        <v>0</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1739,16 +1739,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1310238095238095</v>
+        <v>-0.1205380952380953</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1148051190476191</v>
+        <v>-0.1205380952380953</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.01621869047619046</v>
+        <v>0</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.1282333333333333</v>
+        <v>-0.1231428571428572</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1142345238095239</v>
+        <v>-0.1231428571428572</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.01399880952380948</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1773,16 +1773,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.125452380952381</v>
+        <v>-0.1259476190476191</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1136639285714286</v>
+        <v>-0.1259476190476191</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.01178845238095236</v>
+        <v>0</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1790,16 +1790,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1225285714285714</v>
+        <v>-0.1291952380952382</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1130933333333334</v>
+        <v>-0.1291952380952382</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.009435238095238066</v>
+        <v>0</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.1197666666666667</v>
+        <v>-0.1320190476190477</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1125227380952381</v>
+        <v>-0.1320190476190477</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.007243928571428554</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1824,16 +1824,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.1172380952380953</v>
+        <v>-0.1350619047619049</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.1119521428571429</v>
+        <v>-0.1350619047619049</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.00528595238095235</v>
+        <v>0</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1841,16 +1841,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.1150904761904762</v>
+        <v>-0.1383952380952382</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.1113815476190477</v>
+        <v>-0.1383952380952382</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.003708928571428544</v>
+        <v>0</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1858,16 +1858,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1131952380952381</v>
+        <v>-0.1421714285714287</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1108109523809524</v>
+        <v>-0.1421714285714287</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.002384285714285686</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1116809523809524</v>
+        <v>-0.1466380952380953</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1102403571428572</v>
+        <v>-0.1466380952380953</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.001440595238095213</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1892,16 +1892,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.1102904761904762</v>
+        <v>-0.1515761904761906</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.109669761904762</v>
+        <v>-0.1515761904761906</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.0006207142857142522</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1909,16 +1909,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1092238095238095</v>
+        <v>-0.1563428571428573</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1090991666666667</v>
+        <v>-0.1563428571428573</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.0001246428571428371</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1926,16 +1926,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1085285714285714</v>
+        <v>-0.1612809523809525</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1085285714285715</v>
+        <v>-0.1612809523809525</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>2.775557561562891e-17</v>
+        <v>0</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.1079761904761905</v>
+        <v>-0.1664761904761906</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1079761904761905</v>
+        <v>-0.1664761904761906</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>0</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.107752380952381</v>
+        <v>-0.172157142857143</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.107752380952381</v>
+        <v>-0.172157142857143</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>0</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.1079095238095238</v>
+        <v>-0.1784238095238097</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1079095238095238</v>
+        <v>-0.1784238095238097</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>0</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1083238095238095</v>
+        <v>-0.1851619047619049</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1083238095238095</v>
+        <v>-0.1851619047619049</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.1089809523809524</v>
+        <v>-0.192457142857143</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1089809523809524</v>
+        <v>-0.192457142857143</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1097619047619048</v>
+        <v>-0.2000857142857144</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1097619047619048</v>
+        <v>-0.2000857142857144</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>0</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.1106571428571429</v>
+        <v>-0.2082857142857144</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1106571428571429</v>
+        <v>-0.2082857142857144</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1120238095238095</v>
+        <v>-0.2169428571428573</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1120238095238095</v>
+        <v>-0.2169428571428573</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.1134380952380953</v>
+        <v>-0.226209523809524</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.1134380952380953</v>
+        <v>-0.226209523809524</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>0</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1151047619047619</v>
+        <v>-0.2361428571428573</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.1151047619047619</v>
+        <v>-0.2361428571428573</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1167190476190476</v>
+        <v>-0.2466666666666668</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1167190476190476</v>
+        <v>-0.2466666666666668</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1184</v>
+        <v>-0.2578809523809525</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1184</v>
+        <v>-0.2578809523809525</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1205380952380953</v>
+        <v>-0.2696452380952384</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1205380952380953</v>
+        <v>-0.2696452380952384</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>0</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.1231428571428572</v>
+        <v>-0.2819738095238099</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.1231428571428572</v>
+        <v>-0.2819738095238099</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.1259476190476191</v>
+        <v>-0.2948500000000004</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.1259476190476191</v>
+        <v>-0.2948500000000004</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2195,414 +2195,6 @@
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>-0.1291952380952381</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>-0.1291952380952381</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>-0.1320190476190476</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>-0.1320190476190476</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>-0.1350619047619048</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>-0.1350619047619048</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>-0.1383952380952381</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>-0.1383952380952381</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>-0.1421714285714286</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>-0.1421714285714286</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>-0.1466380952380953</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>-0.1466380952380953</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>-0.1515761904761905</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>-0.1515761904761905</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>-0.1563428571428572</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>-0.1563428571428572</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>-0.1612809523809524</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>-0.1612809523809524</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>-0.1664761904761905</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>-0.1664761904761905</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>-0.1721571428571429</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>-0.1721571428571429</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>-0.1784238095238095</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>-0.1784238095238095</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>-0.1851619047619048</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>-0.1851619047619048</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>-0.1924571428571429</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>-0.1924571428571429</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>-0.2000857142857143</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>-0.2000857142857143</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>-0.2082857142857143</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>-0.2082857142857143</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>-0.2169428571428572</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>-0.2169428571428572</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>-0.2262095238095238</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>-0.2262095238095238</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>-0.2361428571428572</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>-0.2361428571428572</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>-0.2466666666666667</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>-0.2466666666666667</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>-0.2578809523809524</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>-0.2578809523809524</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>-0.2696452380952383</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>-0.2696452380952383</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>-0.2819738095238098</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>-0.2819738095238098</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>-0.2948500000000005</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>-0.2948500000000005</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2644,7 +2236,7 @@
         <v>-0.268</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.02697297619047617</v>
+        <v>-0.0269729761904762</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Apt3.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Apt3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,13 +477,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.164809523809524</v>
+        <v>-0.2782619047619048</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.164809523809524</v>
+        <v>-0.2782619047619048</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -498,13 +498,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.1624833333333335</v>
+        <v>-0.2711309523809524</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.1624833333333335</v>
+        <v>-0.2711309523809524</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -515,13 +515,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.1601833333333334</v>
+        <v>-0.2632595238095239</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.1601833333333334</v>
+        <v>-0.2632595238095239</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.1579428571428572</v>
+        <v>-0.2551142857142858</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.1579428571428572</v>
+        <v>-0.2551142857142858</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -549,13 +549,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.1557952380952382</v>
+        <v>-0.2472047619047621</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.1557952380952382</v>
+        <v>-0.2472047619047621</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -566,13 +566,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.1538714285714287</v>
+        <v>-0.2401380952380954</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.1538714285714287</v>
+        <v>-0.2401380952380954</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.151904761904762</v>
+        <v>-0.2336333333333335</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.151904761904762</v>
+        <v>-0.2336333333333335</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -600,13 +600,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.1499238095238096</v>
+        <v>-0.2275523809523811</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.1499238095238096</v>
+        <v>-0.2275523809523811</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -617,13 +617,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.1479142857142858</v>
+        <v>-0.2218619047619049</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.1479142857142858</v>
+        <v>-0.2218619047619049</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -634,13 +634,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.1460000000000001</v>
+        <v>-0.2166476190476192</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.1460000000000001</v>
+        <v>-0.2166476190476192</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -651,13 +651,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.1442476190476192</v>
+        <v>-0.2116809523809525</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.1442476190476192</v>
+        <v>-0.2116809523809525</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.1427619047619049</v>
+        <v>-0.2069428571428573</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.1427619047619049</v>
+        <v>-0.2069428571428573</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.1412666666666668</v>
+        <v>-0.2025666666666668</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.1412666666666668</v>
+        <v>-0.2025666666666668</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -702,13 +702,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.1397619047619048</v>
+        <v>-0.1983857142857144</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.1397619047619048</v>
+        <v>-0.1983857142857144</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.138304761904762</v>
+        <v>-0.1944428571428573</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.138304761904762</v>
+        <v>-0.1944428571428573</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -736,13 +736,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.1369285714285715</v>
+        <v>-0.1907904761904763</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.1369285714285715</v>
+        <v>-0.1907904761904763</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.1356380952380953</v>
+        <v>-0.187457142857143</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.1356380952380953</v>
+        <v>-0.187457142857143</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
@@ -770,13 +770,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.1345714285714286</v>
+        <v>-0.1842523809523811</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.1345714285714286</v>
+        <v>-0.1842523809523811</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.1336095238095239</v>
+        <v>-0.1811476190476192</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.1336095238095239</v>
+        <v>-0.1811476190476192</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -804,13 +804,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.1326904761904763</v>
+        <v>-0.1780285714285715</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.1326904761904763</v>
+        <v>-0.1780285714285715</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.1320095238095239</v>
+        <v>-0.1750809523809525</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.1320095238095239</v>
+        <v>-0.1750809523809525</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
@@ -838,16 +838,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.1313523809523811</v>
+        <v>-0.1722000000000001</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.1313523809523811</v>
+        <v>-0.1722000000000001</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>2.775557561562891e-17</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -855,16 +855,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.1308095238095239</v>
+        <v>-0.1696142857142858</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.1307817857142858</v>
+        <v>-0.1696142857142858</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-2.773809523806681e-05</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -872,16 +872,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.1305380952380953</v>
+        <v>-0.1671666666666668</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.1302111904761906</v>
+        <v>-0.1671666666666668</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.0003269047619047227</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -889,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.1305238095238096</v>
+        <v>-0.1647809523809525</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.1296405952380954</v>
+        <v>-0.1647809523809525</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.0008832142857142233</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -906,16 +906,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.1308428571428572</v>
+        <v>-0.1624285714285715</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.1290700000000001</v>
+        <v>-0.1624285714285715</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.001772857142857104</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -923,16 +923,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.1314190476190477</v>
+        <v>-0.1601904761904763</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.1284994047619049</v>
+        <v>-0.1601904761904763</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.002919642857142829</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -940,16 +940,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.1322000000000001</v>
+        <v>-0.1579428571428572</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.1279288095238096</v>
+        <v>-0.1579428571428572</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.004271190476190428</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -957,16 +957,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.1332380952380953</v>
+        <v>-0.1557952380952382</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.1273582142857144</v>
+        <v>-0.1557952380952382</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.0058798809523809</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -974,16 +974,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.1344190476190477</v>
+        <v>-0.1538714285714287</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.1267876190476192</v>
+        <v>-0.1538714285714287</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.007631428571428539</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -991,16 +991,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.1357666666666668</v>
+        <v>-0.151904761904762</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.1262170238095239</v>
+        <v>-0.151904761904762</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.009549642857142826</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1008,16 +1008,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.1373666666666667</v>
+        <v>-0.1499238095238096</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.1256464285714287</v>
+        <v>-0.1499238095238096</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.01172023809523806</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1025,16 +1025,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.1388142857142858</v>
+        <v>-0.1479142857142858</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.1250758333333334</v>
+        <v>-0.1479142857142858</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.01373845238095237</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.1404000000000001</v>
+        <v>-0.1460000000000001</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.1245052380952382</v>
+        <v>-0.1460000000000001</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.01589476190476187</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1059,16 +1059,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.1418523809523811</v>
+        <v>-0.1442476190476192</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.123934642857143</v>
+        <v>-0.1442476190476192</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.01791773809523808</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.1431095238095239</v>
+        <v>-0.1427619047619049</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.1233640476190477</v>
+        <v>-0.1427619047619049</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.01974547619047617</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1093,16 +1093,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.144357142857143</v>
+        <v>-0.1412666666666668</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.1227934523809525</v>
+        <v>-0.1412666666666668</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.02156369047619047</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.1453333333333334</v>
+        <v>-0.1397619047619049</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.1222228571428573</v>
+        <v>-0.1397619047619049</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.02311047619047617</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1127,16 +1127,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.1459523809523811</v>
+        <v>-0.138304761904762</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.121652261904762</v>
+        <v>-0.138304761904762</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.02430011904761904</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1144,16 +1144,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.1465190476190477</v>
+        <v>-0.1369285714285715</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.1210816666666668</v>
+        <v>-0.1369285714285715</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.02543738095238091</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1161,16 +1161,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.1467761904761906</v>
+        <v>-0.1356380952380953</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.1205110714285715</v>
+        <v>-0.1356380952380953</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.02626511904761902</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1178,16 +1178,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.1466380952380953</v>
+        <v>-0.1345714285714286</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.1199404761904763</v>
+        <v>-0.1345714285714286</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.02669761904761903</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1195,16 +1195,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.1463428571428572</v>
+        <v>-0.1336095238095239</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.119369880952381</v>
+        <v>-0.1336095238095239</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.0269729761904762</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1212,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.1454380952380953</v>
+        <v>-0.1326904761904763</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.1187992857142858</v>
+        <v>-0.1326904761904763</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.0266388095238095</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1229,16 +1229,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.1441000000000001</v>
+        <v>-0.1320095238095239</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1182286904761906</v>
+        <v>-0.1320095238095239</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.0258713095238095</v>
+        <v>0</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1246,16 +1246,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.1425333333333334</v>
+        <v>-0.1313523809523811</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.1176580952380953</v>
+        <v>-0.1313523809523811</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.02487523809523809</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1263,16 +1263,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.1407428571428572</v>
+        <v>-0.1308095238095239</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.1170875000000001</v>
+        <v>-0.1307817857142858</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.02365535714285713</v>
+        <v>-2.773809523812232e-05</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1280,16 +1280,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.1385619047619049</v>
+        <v>-0.1305380952380953</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1165169047619049</v>
+        <v>-0.1302111904761906</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.022045</v>
+        <v>-0.0003269047619047782</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.1362666666666668</v>
+        <v>-0.1305238095238096</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.1159463095238096</v>
+        <v>-0.1296405952380953</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.02032035714285713</v>
+        <v>-0.0008832142857142511</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1314,16 +1314,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.1337190476190477</v>
+        <v>-0.1308428571428572</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.1153757142857144</v>
+        <v>-0.1290700000000001</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.01834333333333332</v>
+        <v>-0.001772857142857132</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1331,16 +1331,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.1310238095238096</v>
+        <v>-0.1314190476190477</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.1148051190476191</v>
+        <v>-0.1284994047619049</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.01621869047619046</v>
+        <v>-0.002919642857142857</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1348,16 +1348,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.1282333333333334</v>
+        <v>-0.1322000000000001</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.1142345238095239</v>
+        <v>-0.1279288095238096</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.01399880952380952</v>
+        <v>-0.004271190476190456</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.125452380952381</v>
+        <v>-0.1332380952380953</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.1136639285714287</v>
+        <v>-0.1273582142857144</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.01178845238095237</v>
+        <v>-0.005879880952380928</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1382,16 +1382,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.1225285714285715</v>
+        <v>-0.1344190476190477</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.1130933333333334</v>
+        <v>-0.1267876190476191</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.009435238095238094</v>
+        <v>-0.007631428571428567</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1399,16 +1399,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.1197666666666667</v>
+        <v>-0.1357666666666668</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.1125227380952382</v>
+        <v>-0.1262170238095239</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.007243928571428554</v>
+        <v>-0.009549642857142854</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1416,16 +1416,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.1172380952380953</v>
+        <v>-0.1373666666666667</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.1119521428571429</v>
+        <v>-0.1256464285714287</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.005285952380952377</v>
+        <v>-0.01172023809523809</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.1150904761904763</v>
+        <v>-0.1388142857142858</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.1113815476190477</v>
+        <v>-0.1250758333333334</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.003708928571428571</v>
+        <v>-0.01373845238095239</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1450,16 +1450,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.1131952380952382</v>
+        <v>-0.1404000000000001</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.1108109523809525</v>
+        <v>-0.1245052380952382</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.002384285714285728</v>
+        <v>-0.01589476190476188</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1467,16 +1467,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.1116809523809525</v>
+        <v>-0.1418523809523811</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.1102403571428572</v>
+        <v>-0.123934642857143</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.001440595238095241</v>
+        <v>-0.01791773809523811</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1484,16 +1484,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.1102904761904763</v>
+        <v>-0.1431095238095239</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.109669761904762</v>
+        <v>-0.1233640476190477</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.0006207142857142661</v>
+        <v>-0.0197454761904762</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.1092238095238096</v>
+        <v>-0.144357142857143</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.1090991666666667</v>
+        <v>-0.1227934523809525</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.0001246428571428509</v>
+        <v>-0.02156369047619049</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1518,16 +1518,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.1085285714285715</v>
+        <v>-0.1453333333333334</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1085285714285715</v>
+        <v>-0.1222228571428572</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0</v>
+        <v>-0.02311047619047618</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1535,16 +1535,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.1079761904761905</v>
+        <v>-0.1459523809523811</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.1079761904761905</v>
+        <v>-0.121652261904762</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0</v>
+        <v>-0.02430011904761906</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1552,16 +1552,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.107752380952381</v>
+        <v>-0.1465190476190477</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.107752380952381</v>
+        <v>-0.1210816666666668</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0</v>
+        <v>-0.02543738095238096</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1569,16 +1569,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.1079095238095239</v>
+        <v>-0.1467761904761906</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.1079095238095239</v>
+        <v>-0.1205110714285715</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0</v>
+        <v>-0.02626511904761905</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1586,16 +1586,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.1083238095238096</v>
+        <v>-0.1466380952380953</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.1083238095238096</v>
+        <v>-0.1199404761904763</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0</v>
+        <v>-0.02669761904761907</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1603,16 +1603,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.1089809523809525</v>
+        <v>-0.1463428571428572</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.1089809523809525</v>
+        <v>-0.119369880952381</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0</v>
+        <v>-0.0269729761904762</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1620,16 +1620,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.1097619047619048</v>
+        <v>-0.1454380952380953</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.1097619047619048</v>
+        <v>-0.1187992857142858</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0</v>
+        <v>-0.02663880952380951</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.1106571428571429</v>
+        <v>-0.1441000000000001</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1106571428571429</v>
+        <v>-0.1182286904761906</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0</v>
+        <v>-0.02587130952380953</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.1120238095238096</v>
+        <v>-0.1425333333333334</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1120238095238096</v>
+        <v>-0.1176580952380953</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0</v>
+        <v>-0.02487523809523812</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1671,16 +1671,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.1134380952380953</v>
+        <v>-0.1407428571428572</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1134380952380953</v>
+        <v>-0.1170875000000001</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0</v>
+        <v>-0.02365535714285713</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1688,16 +1688,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.115104761904762</v>
+        <v>-0.1385619047619049</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.115104761904762</v>
+        <v>-0.1165169047619048</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0</v>
+        <v>-0.02204500000000001</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1705,16 +1705,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.1167190476190477</v>
+        <v>-0.1362666666666668</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1167190476190477</v>
+        <v>-0.1159463095238096</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0</v>
+        <v>-0.02032035714285715</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1722,16 +1722,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.1184000000000001</v>
+        <v>-0.1337190476190477</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1184000000000001</v>
+        <v>-0.1153757142857144</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0</v>
+        <v>-0.01834333333333335</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1739,16 +1739,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1205380952380953</v>
+        <v>-0.1310238095238096</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1205380952380953</v>
+        <v>-0.1148051190476191</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0</v>
+        <v>-0.0162186904761905</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.1231428571428572</v>
+        <v>-0.1282333333333334</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1231428571428572</v>
+        <v>-0.1142345238095239</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0</v>
+        <v>-0.01399880952380952</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1773,16 +1773,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.1259476190476191</v>
+        <v>-0.125452380952381</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1259476190476191</v>
+        <v>-0.1136639285714287</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>0</v>
+        <v>-0.01178845238095239</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1790,16 +1790,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.408</v>
+        <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1291952380952382</v>
+        <v>-0.1225285714285715</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1291952380952382</v>
+        <v>-0.1130933333333334</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0</v>
+        <v>-0.009435238095238108</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.412</v>
+        <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.1320190476190477</v>
+        <v>-0.1197666666666667</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1320190476190477</v>
+        <v>-0.1125227380952382</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0</v>
+        <v>-0.007243928571428582</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1824,16 +1824,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.416</v>
+        <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.1350619047619049</v>
+        <v>-0.1172380952380953</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.1350619047619049</v>
+        <v>-0.1119521428571429</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0</v>
+        <v>-0.005285952380952405</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1841,16 +1841,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.42</v>
+        <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.1383952380952382</v>
+        <v>-0.1150904761904763</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.1383952380952382</v>
+        <v>-0.1113815476190477</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0</v>
+        <v>-0.003708928571428585</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1858,16 +1858,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.424</v>
+        <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1421714285714287</v>
+        <v>-0.1131952380952382</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1421714285714287</v>
+        <v>-0.1108109523809525</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0</v>
+        <v>-0.002384285714285728</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.428</v>
+        <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1466380952380953</v>
+        <v>-0.1116809523809525</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1466380952380953</v>
+        <v>-0.1102403571428572</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0</v>
+        <v>-0.001440595238095241</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1892,16 +1892,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.432</v>
+        <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.1515761904761906</v>
+        <v>-0.1102904761904763</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1515761904761906</v>
+        <v>-0.109669761904762</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0</v>
+        <v>-0.0006207142857143078</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1909,16 +1909,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.436</v>
+        <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1563428571428573</v>
+        <v>-0.1092238095238096</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1563428571428573</v>
+        <v>-0.1090991666666667</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0</v>
+        <v>-0.0001246428571428787</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.44</v>
+        <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1612809523809525</v>
+        <v>-0.1085285714285715</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1612809523809525</v>
+        <v>-0.1085285714285715</v>
       </c>
       <c r="D87" s="2" t="n">
         <v>0</v>
@@ -1943,13 +1943,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.444</v>
+        <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.1664761904761906</v>
+        <v>-0.1079761904761905</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1664761904761906</v>
+        <v>-0.1079761904761905</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>0</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.448</v>
+        <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.172157142857143</v>
+        <v>-0.107752380952381</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.172157142857143</v>
+        <v>-0.107752380952381</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>0</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.452</v>
+        <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.1784238095238097</v>
+        <v>-0.1079095238095239</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1784238095238097</v>
+        <v>-0.1079095238095239</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>0</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.456</v>
+        <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1851619047619049</v>
+        <v>-0.1083238095238096</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1851619047619049</v>
+        <v>-0.1083238095238096</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.46</v>
+        <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.192457142857143</v>
+        <v>-0.1089809523809525</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.192457142857143</v>
+        <v>-0.1089809523809525</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.464</v>
+        <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.2000857142857144</v>
+        <v>-0.1097619047619048</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.2000857142857144</v>
+        <v>-0.1097619047619048</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>0</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.468</v>
+        <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.2082857142857144</v>
+        <v>-0.1106571428571429</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.2082857142857144</v>
+        <v>-0.1106571428571429</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.472</v>
+        <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.2169428571428573</v>
+        <v>-0.1120238095238096</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.2169428571428573</v>
+        <v>-0.1120238095238096</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.476</v>
+        <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.226209523809524</v>
+        <v>-0.1134380952380953</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.226209523809524</v>
+        <v>-0.1134380952380953</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>0</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.48</v>
+        <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.2361428571428573</v>
+        <v>-0.115104761904762</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.2361428571428573</v>
+        <v>-0.115104761904762</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.484</v>
+        <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.2466666666666668</v>
+        <v>-0.1167190476190477</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.2466666666666668</v>
+        <v>-0.1167190476190477</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.488</v>
+        <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.2578809523809525</v>
+        <v>-0.1184000000000001</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.2578809523809525</v>
+        <v>-0.1184000000000001</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.492</v>
+        <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.2696452380952384</v>
+        <v>-0.1205380952380953</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.2696452380952384</v>
+        <v>-0.1205380952380953</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>0</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.496</v>
+        <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.2819738095238099</v>
+        <v>-0.1231428571428572</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.2819738095238099</v>
+        <v>-0.1231428571428572</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.5</v>
+        <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.2948500000000004</v>
+        <v>-0.1259476190476191</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.2948500000000004</v>
+        <v>-0.1259476190476191</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2195,6 +2195,414 @@
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>-0.408</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>-0.1291952380952382</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-0.1291952380952382</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>-0.1320190476190477</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-0.1320190476190477</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>-0.1350619047619049</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-0.1350619047619049</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>-0.1383952380952382</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-0.1383952380952382</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>-0.424</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>-0.1421714285714287</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-0.1421714285714287</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>-0.428</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>-0.1466380952380953</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-0.1466380952380953</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>-0.1515761904761906</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-0.1515761904761906</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>-0.1563428571428573</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-0.1563428571428573</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>-0.1612809523809525</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-0.1612809523809525</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>-0.444</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>-0.1664761904761906</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-0.1664761904761906</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>-0.448</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>-0.172157142857143</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-0.172157142857143</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>-0.452</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>-0.1784238095238097</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-0.1784238095238097</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>-0.1851619047619049</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-0.1851619047619049</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>-0.192457142857143</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-0.192457142857143</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>-0.464</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>-0.2000857142857144</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-0.2000857142857144</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>-0.2082857142857144</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-0.2082857142857144</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>-0.2169428571428573</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-0.2169428571428573</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>-0.476</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>-0.226209523809524</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-0.226209523809524</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>-0.2361428571428573</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-0.2361428571428573</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>-0.2466666666666669</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-0.2466666666666669</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>-0.2578809523809525</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>-0.2578809523809525</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>-0.2696452380952384</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>-0.2696452380952384</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>-0.496</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>-0.28197380952381</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>-0.28197380952381</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>-0.2948500000000006</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>-0.2948500000000006</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
